--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gal-Galr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gal-Galr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.821888</v>
+        <v>7.37922</v>
       </c>
       <c r="H2">
-        <v>3.643776</v>
+        <v>14.75844</v>
       </c>
       <c r="I2">
-        <v>0.04008861639797671</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="J2">
-        <v>0.03735404616089616</v>
+        <v>0.09890402754036515</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,27 +567,27 @@
         <v>0.024938</v>
       </c>
       <c r="O2">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.015144747648</v>
+        <v>0.06134099612</v>
       </c>
       <c r="R2">
-        <v>0.09086848588799999</v>
+        <v>0.36804597672</v>
       </c>
       <c r="S2">
-        <v>0.00585833025140634</v>
+        <v>0.1006468077466098</v>
       </c>
       <c r="T2">
-        <v>0.005458715174012625</v>
+        <v>0.09890402754036515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,25 +596,25 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.821888</v>
+        <v>0.6247593333333333</v>
       </c>
       <c r="H3">
-        <v>3.643776</v>
+        <v>1.874278</v>
       </c>
       <c r="I3">
-        <v>0.04008861639797671</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="J3">
-        <v>0.03735404616089616</v>
+        <v>0.01256051743478989</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,33 +623,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.048571</v>
+        <v>0.008312666666666666</v>
       </c>
       <c r="N3">
-        <v>0.145713</v>
+        <v>0.024938</v>
       </c>
       <c r="O3">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.08849092204800001</v>
+        <v>0.005193416084888889</v>
       </c>
       <c r="R3">
-        <v>0.530945532288</v>
+        <v>0.046740744764</v>
       </c>
       <c r="S3">
-        <v>0.03423028614657038</v>
+        <v>0.008521230226216335</v>
       </c>
       <c r="T3">
-        <v>0.03189533098688354</v>
+        <v>0.01256051743478989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6247593333333333</v>
+        <v>0.364443</v>
       </c>
       <c r="H4">
-        <v>1.874278</v>
+        <v>1.093329</v>
       </c>
       <c r="I4">
-        <v>0.01374713333369322</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="J4">
-        <v>0.01921409738972762</v>
+        <v>0.007326969620547964</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,27 +691,27 @@
         <v>0.024938</v>
       </c>
       <c r="O4">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.005193416084888889</v>
+        <v>0.003029493178</v>
       </c>
       <c r="R4">
-        <v>0.046740744764</v>
+        <v>0.027265438602</v>
       </c>
       <c r="S4">
-        <v>0.002008930572194956</v>
+        <v>0.004970718389693994</v>
       </c>
       <c r="T4">
-        <v>0.002807842677189277</v>
+        <v>0.007326969620547964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,25 +720,25 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6247593333333333</v>
+        <v>63.354893</v>
       </c>
       <c r="H5">
-        <v>1.874278</v>
+        <v>126.709786</v>
       </c>
       <c r="I5">
-        <v>0.01374713333369322</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="J5">
-        <v>0.01921409738972762</v>
+        <v>0.8491485661206588</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.048571</v>
+        <v>0.008312666666666666</v>
       </c>
       <c r="N5">
-        <v>0.145713</v>
+        <v>0.024938</v>
       </c>
       <c r="O5">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.03034518557933333</v>
+        <v>0.5266481072113334</v>
       </c>
       <c r="R5">
-        <v>0.273106670214</v>
+        <v>3.159888643268</v>
       </c>
       <c r="S5">
-        <v>0.01173820276149826</v>
+        <v>0.8641113472125828</v>
       </c>
       <c r="T5">
-        <v>0.01640625471253834</v>
+        <v>0.8491485661206588</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8733626666666668</v>
+        <v>1.014457666666667</v>
       </c>
       <c r="H6">
-        <v>2.620088</v>
+        <v>3.043373</v>
       </c>
       <c r="I6">
-        <v>0.01921737281342981</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="J6">
-        <v>0.02685974332604697</v>
+        <v>0.0203952346594629</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,27 +815,27 @@
         <v>0.024938</v>
       </c>
       <c r="O6">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.1461345084412046</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.007259972727111112</v>
+        <v>0.008432848430444444</v>
       </c>
       <c r="R6">
-        <v>0.06533975454400001</v>
+        <v>0.07589563587399999</v>
       </c>
       <c r="S6">
-        <v>0.002808321329621934</v>
+        <v>0.0138364116727885</v>
       </c>
       <c r="T6">
-        <v>0.003925135387808799</v>
+        <v>0.0203952346594629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.8733626666666668</v>
+        <v>0.5802006666666667</v>
       </c>
       <c r="H7">
-        <v>2.620088</v>
+        <v>1.740602</v>
       </c>
       <c r="I7">
-        <v>0.01921737281342981</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="J7">
-        <v>0.02685974332604697</v>
+        <v>0.01166468462417536</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,400 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.048571</v>
+        <v>0.008312666666666666</v>
       </c>
       <c r="N7">
-        <v>0.145713</v>
+        <v>0.024938</v>
       </c>
       <c r="O7">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.8538654915587955</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.04242009808266668</v>
+        <v>0.004823014741777778</v>
       </c>
       <c r="R7">
-        <v>0.3817808827440001</v>
+        <v>0.043407132676</v>
       </c>
       <c r="S7">
-        <v>0.01640905148380788</v>
+        <v>0.007913484752108601</v>
       </c>
       <c r="T7">
-        <v>0.02293460793823817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>36.970641</v>
-      </c>
-      <c r="H8">
-        <v>73.941282</v>
-      </c>
-      <c r="I8">
-        <v>0.8134977808933976</v>
-      </c>
-      <c r="J8">
-        <v>0.7580065462377052</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.008312666666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.024938</v>
-      </c>
-      <c r="O8">
-        <v>0.1461345084412046</v>
-      </c>
-      <c r="P8">
-        <v>0.1461345084412046</v>
-      </c>
-      <c r="Q8">
-        <v>0.307324615086</v>
-      </c>
-      <c r="R8">
-        <v>1.843947690516</v>
-      </c>
-      <c r="S8">
-        <v>0.1188800983288674</v>
-      </c>
-      <c r="T8">
-        <v>0.1107709140296623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>36.970641</v>
-      </c>
-      <c r="H9">
-        <v>73.941282</v>
-      </c>
-      <c r="I9">
-        <v>0.8134977808933976</v>
-      </c>
-      <c r="J9">
-        <v>0.7580065462377052</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.048571</v>
-      </c>
-      <c r="N9">
-        <v>0.145713</v>
-      </c>
-      <c r="O9">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="P9">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="Q9">
-        <v>1.795701004011</v>
-      </c>
-      <c r="R9">
-        <v>10.774206024066</v>
-      </c>
-      <c r="S9">
-        <v>0.6946176825645304</v>
-      </c>
-      <c r="T9">
-        <v>0.647235632208043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.285985333333333</v>
-      </c>
-      <c r="H10">
-        <v>12.857956</v>
-      </c>
-      <c r="I10">
-        <v>0.09430833394553031</v>
-      </c>
-      <c r="J10">
-        <v>0.1318129001230514</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.008312666666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.024938</v>
-      </c>
-      <c r="O10">
-        <v>0.1461345084412046</v>
-      </c>
-      <c r="P10">
-        <v>0.1461345084412046</v>
-      </c>
-      <c r="Q10">
-        <v>0.03562796741422222</v>
-      </c>
-      <c r="R10">
-        <v>0.3206517067279999</v>
-      </c>
-      <c r="S10">
-        <v>0.01378170202303904</v>
-      </c>
-      <c r="T10">
-        <v>0.01926241336569171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.285985333333333</v>
-      </c>
-      <c r="H11">
-        <v>12.857956</v>
-      </c>
-      <c r="I11">
-        <v>0.09430833394553031</v>
-      </c>
-      <c r="J11">
-        <v>0.1318129001230514</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.048571</v>
-      </c>
-      <c r="N11">
-        <v>0.145713</v>
-      </c>
-      <c r="O11">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="P11">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="Q11">
-        <v>0.2081745936253333</v>
-      </c>
-      <c r="R11">
-        <v>1.873571342628</v>
-      </c>
-      <c r="S11">
-        <v>0.08052663192249129</v>
-      </c>
-      <c r="T11">
-        <v>0.1125504867573597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.869881</v>
-      </c>
-      <c r="H12">
-        <v>2.609643</v>
-      </c>
-      <c r="I12">
-        <v>0.01914076261597221</v>
-      </c>
-      <c r="J12">
-        <v>0.02675266676257255</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.008312666666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.024938</v>
-      </c>
-      <c r="O12">
-        <v>0.1461345084412046</v>
-      </c>
-      <c r="P12">
-        <v>0.1461345084412046</v>
-      </c>
-      <c r="Q12">
-        <v>0.007231030792666666</v>
-      </c>
-      <c r="R12">
-        <v>0.065079277134</v>
-      </c>
-      <c r="S12">
-        <v>0.002797125936074884</v>
-      </c>
-      <c r="T12">
-        <v>0.003909487806839891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.869881</v>
-      </c>
-      <c r="H13">
-        <v>2.609643</v>
-      </c>
-      <c r="I13">
-        <v>0.01914076261597221</v>
-      </c>
-      <c r="J13">
-        <v>0.02675266676257255</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.048571</v>
-      </c>
-      <c r="N13">
-        <v>0.145713</v>
-      </c>
-      <c r="O13">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="P13">
-        <v>0.8538654915587955</v>
-      </c>
-      <c r="Q13">
-        <v>0.042250990051</v>
-      </c>
-      <c r="R13">
-        <v>0.3802589104590001</v>
-      </c>
-      <c r="S13">
-        <v>0.01634363667989733</v>
-      </c>
-      <c r="T13">
-        <v>0.02284317895573266</v>
+        <v>0.01166468462417536</v>
       </c>
     </row>
   </sheetData>
